--- a/Code/Ferns/Heuristical Ferns/Evaluation/Times_Gini_Random.xlsx
+++ b/Code/Ferns/Heuristical Ferns/Evaluation/Times_Gini_Random.xlsx
@@ -95,7 +95,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -252,11 +252,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="63867520"/>
-        <c:axId val="63881600"/>
+        <c:axId val="74461696"/>
+        <c:axId val="97190464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63867520"/>
+        <c:axId val="74461696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -266,7 +266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63881600"/>
+        <c:crossAx val="97190464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -274,7 +274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63881600"/>
+        <c:axId val="97190464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -285,7 +285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63867520"/>
+        <c:crossAx val="74461696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -311,16 +311,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,25 +796,43 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1343.6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="1">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6344.4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>67.8</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="1">
+        <v>205</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12917</v>
+      </c>
+      <c r="G14" s="1">
+        <v>115</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C15">
@@ -855,25 +873,43 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="E19" s="1">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1">
+        <v>501</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="1">
+        <v>95</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9129</v>
+      </c>
+      <c r="G20" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>10</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="E21" s="1">
+        <v>164</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10048</v>
+      </c>
+      <c r="G21" s="1">
+        <v>113</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22">

--- a/Code/Ferns/Heuristical Ferns/Evaluation/Times_Gini_Random.xlsx
+++ b/Code/Ferns/Heuristical Ferns/Evaluation/Times_Gini_Random.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,256 +90,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$C$5:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$D$5:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$E$5:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>15.0131</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>345</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$F$5:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2310</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8431.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16269</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23652</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$G$5:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>14.6692</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>236</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="74461696"/>
-        <c:axId val="97190464"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="74461696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97190464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97190464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74461696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J28"/>
+  <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,12 +392,12 @@
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -670,7 +420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>8</v>
       </c>
@@ -692,8 +442,20 @@
       <c r="J5" s="1">
         <v>73.25</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f>E5/C5</f>
+        <v>15.0131</v>
+      </c>
+      <c r="N5">
+        <f>F5/$C5</f>
+        <v>2310</v>
+      </c>
+      <c r="O5">
+        <f>G5/$C5</f>
+        <v>14.6692</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>5</v>
       </c>
@@ -712,8 +474,20 @@
       <c r="J6" s="1">
         <v>81.2</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" ref="M6:M21" si="0">E6/C6</f>
+        <v>16.32</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N21" si="1">F6/$C6</f>
+        <v>1686.28</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O21" si="2">G6/$C6</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>10</v>
       </c>
@@ -732,8 +506,20 @@
       <c r="J7" s="1">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>17.8</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>1296.2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>15</v>
       </c>
@@ -752,8 +538,20 @@
       <c r="J8" s="1">
         <v>82.68</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>18.866666666666667</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>1084.5999999999999</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>10.866666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>20</v>
       </c>
@@ -772,8 +570,20 @@
       <c r="J9" s="1">
         <v>86.93</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>17.25</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>1182.5999999999999</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>25</v>
       </c>
@@ -781,7 +591,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>30</v>
       </c>
@@ -789,7 +599,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -805,8 +615,20 @@
       <c r="G12" s="1">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>14.3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>1343.6</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>5</v>
       </c>
@@ -819,8 +641,20 @@
       <c r="G13" s="1">
         <v>67.8</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>13.719999999999999</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1268.8799999999999</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>13.559999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>10</v>
       </c>
@@ -833,8 +667,20 @@
       <c r="G14" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>1291.7</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>15</v>
       </c>
@@ -842,7 +688,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>20</v>
       </c>
@@ -850,7 +696,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>25</v>
       </c>
@@ -858,7 +704,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>30</v>
       </c>
@@ -866,7 +712,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>12</v>
       </c>
@@ -882,8 +728,20 @@
       <c r="G19" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>501</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>5</v>
       </c>
@@ -896,8 +754,20 @@
       <c r="G20" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>1825.8</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>10</v>
       </c>
@@ -910,8 +780,20 @@
       <c r="G21" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>1004.8</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>15</v>
       </c>
@@ -919,7 +801,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>20</v>
       </c>
@@ -927,7 +809,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>25</v>
       </c>
@@ -935,7 +817,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>30</v>
       </c>
@@ -943,7 +825,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -951,7 +833,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Code/Ferns/Heuristical Ferns/Evaluation/Times_Gini_Random.xlsx
+++ b/Code/Ferns/Heuristical Ferns/Evaluation/Times_Gini_Random.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>depth</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>accuracies</t>
+  </si>
+  <si>
+    <t>FORESTS:</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -63,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,13 +80,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -379,454 +428,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O28"/>
+  <dimension ref="A2:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="C5" s="1">
+        <v>15.0131</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2310</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14.6692</v>
+      </c>
+      <c r="F5" s="1">
+        <v>66.260000000000005</v>
+      </c>
+      <c r="G5" s="1">
+        <v>73.25</v>
+      </c>
+      <c r="I5">
+        <f>C5/B5</f>
+        <v>15.0131</v>
+      </c>
+      <c r="J5">
+        <f>D5/$B5</f>
+        <v>2310</v>
+      </c>
+      <c r="K5">
+        <f>E5/$B5</f>
+        <v>14.6692</v>
+      </c>
+      <c r="M5">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>15.0131</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2310</v>
-      </c>
-      <c r="G5" s="1">
-        <v>14.6692</v>
-      </c>
-      <c r="I5" s="1">
-        <v>66.260000000000005</v>
-      </c>
-      <c r="J5" s="1">
-        <v>73.25</v>
-      </c>
-      <c r="M5">
-        <f>E5/C5</f>
-        <v>15.0131</v>
-      </c>
-      <c r="N5">
-        <f>F5/$C5</f>
-        <v>2310</v>
-      </c>
       <c r="O5">
-        <f>G5/$C5</f>
-        <v>14.6692</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6">
+        <v>279.886803764386</v>
+      </c>
+      <c r="P5">
+        <v>220.41685966125999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8431.4</v>
+      </c>
       <c r="E6" s="1">
-        <v>81.599999999999994</v>
+        <v>59.5</v>
       </c>
       <c r="F6" s="1">
-        <v>8431.4</v>
+        <v>79.819999999999993</v>
       </c>
       <c r="G6" s="1">
-        <v>59.5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>79.819999999999993</v>
-      </c>
-      <c r="J6" s="1">
         <v>81.2</v>
       </c>
+      <c r="I6">
+        <f>C6/B6</f>
+        <v>16.32</v>
+      </c>
+      <c r="J6">
+        <f>D6/$B6</f>
+        <v>1686.28</v>
+      </c>
+      <c r="K6">
+        <f>E6/$B6</f>
+        <v>11.9</v>
+      </c>
       <c r="M6">
-        <f t="shared" ref="M6:M21" si="0">E6/C6</f>
-        <v>16.32</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N21" si="1">F6/$C6</f>
-        <v>1686.28</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O21" si="2">G6/$C6</f>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C7">
+        <v>350.49018871527198</v>
+      </c>
+      <c r="P6">
+        <v>266.29411281469203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>10</v>
       </c>
+      <c r="C7" s="1">
+        <v>178</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12962</v>
+      </c>
       <c r="E7" s="1">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1">
-        <v>12962</v>
+        <v>86.52</v>
       </c>
       <c r="G7" s="1">
-        <v>123</v>
-      </c>
-      <c r="I7" s="1">
-        <v>86.52</v>
-      </c>
-      <c r="J7" s="1">
         <v>83.8</v>
       </c>
+      <c r="I7">
+        <f>C7/B7</f>
+        <v>17.8</v>
+      </c>
+      <c r="J7">
+        <f>D7/$B7</f>
+        <v>1296.2</v>
+      </c>
+      <c r="K7">
+        <f>E7/$B7</f>
+        <v>12.3</v>
+      </c>
       <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>351.624989151139</v>
+      </c>
+      <c r="P7">
+        <v>349.256501133418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>283</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16269</v>
+      </c>
+      <c r="E8" s="1">
+        <v>163</v>
+      </c>
+      <c r="F8" s="1">
+        <v>86.34</v>
+      </c>
+      <c r="G8" s="1">
+        <v>82.68</v>
+      </c>
+      <c r="I8">
+        <f>C8/B8</f>
+        <v>18.866666666666667</v>
+      </c>
+      <c r="J8">
+        <f>D8/$B8</f>
+        <v>1084.5999999999999</v>
+      </c>
+      <c r="K8">
+        <f>E8/$B8</f>
+        <v>10.866666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>345</v>
+      </c>
+      <c r="D9" s="1">
+        <v>23652</v>
+      </c>
+      <c r="E9" s="1">
+        <v>236</v>
+      </c>
+      <c r="F9" s="1">
+        <v>85.65</v>
+      </c>
+      <c r="G9" s="1">
+        <v>86.93</v>
+      </c>
+      <c r="I9">
+        <f>C9/B9</f>
+        <v>17.25</v>
+      </c>
+      <c r="J9">
+        <f>D9/$B9</f>
+        <v>1182.5999999999999</v>
+      </c>
+      <c r="K9">
+        <f>E9/$B9</f>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="I10" s="2">
+        <f>SUM(I5:I9)/5</f>
+        <v>17.049953333333331</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" ref="J10:K10" si="0">SUM(J5:J9)/5</f>
+        <v>1511.9360000000001</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>17.8</v>
-      </c>
-      <c r="N7">
+        <v>12.307173333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="O11">
+        <f>O5/I10</f>
+        <v>16.415693245165443</v>
+      </c>
+      <c r="P11">
+        <f>P5/K10</f>
+        <v>17.909625036666419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1343.6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="F12">
+        <v>60.66473464952</v>
+      </c>
+      <c r="G12" s="1">
+        <v>62.053975729034597</v>
+      </c>
+      <c r="I12">
+        <f>C12/B12</f>
+        <v>14.3</v>
+      </c>
+      <c r="J12">
+        <f>D12/$B12</f>
+        <v>1343.6</v>
+      </c>
+      <c r="K12">
+        <f>E12/$B12</f>
+        <v>15.8</v>
+      </c>
+      <c r="O12">
+        <f>O6/I15</f>
+        <v>21.670869046698598</v>
+      </c>
+      <c r="P12">
+        <f>P6/K15</f>
+        <v>19.551696976115423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6344.4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>67.8</v>
+      </c>
+      <c r="F13">
+        <v>77.085672885346895</v>
+      </c>
+      <c r="G13" s="1">
+        <v>78.690454627784803</v>
+      </c>
+      <c r="I13">
+        <f>C13/B13</f>
+        <v>13.719999999999999</v>
+      </c>
+      <c r="J13">
+        <f>D13/$B13</f>
+        <v>1268.8799999999999</v>
+      </c>
+      <c r="K13">
+        <f>E13/$B13</f>
+        <v>13.559999999999999</v>
+      </c>
+      <c r="O13">
+        <f>O7/I22</f>
+        <v>17.758837835916111</v>
+      </c>
+      <c r="P13">
+        <f>P7/K22</f>
+        <v>23.027901173631957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>205</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12917</v>
+      </c>
+      <c r="E14" s="1">
+        <v>115</v>
+      </c>
+      <c r="F14">
+        <v>86.627422568375295</v>
+      </c>
+      <c r="G14">
+        <v>81.968846223510198</v>
+      </c>
+      <c r="I14">
+        <f>C14/B14</f>
+        <v>20.5</v>
+      </c>
+      <c r="J14">
+        <f>D14/$B14</f>
+        <v>1291.7</v>
+      </c>
+      <c r="K14">
+        <f>E14/$B14</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="I15" s="2">
+        <f>SUM(I12:I14)/3</f>
+        <v>16.173333333333332</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" ref="J15:K15" si="1">SUM(J12:J14)/3</f>
+        <v>1301.3933333333332</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>1296.2</v>
-      </c>
-      <c r="O7">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1">
+        <v>501</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>41.311356638290199</v>
+      </c>
+      <c r="G19">
+        <v>53.332729577975002</v>
+      </c>
+      <c r="I19">
+        <f>C19/B19</f>
+        <v>24</v>
+      </c>
+      <c r="J19">
+        <f>D19/$B19</f>
+        <v>501</v>
+      </c>
+      <c r="K19">
+        <f>E19/$B19</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>95</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9129</v>
+      </c>
+      <c r="E20" s="1">
+        <v>71</v>
+      </c>
+      <c r="F20">
+        <v>74.680311537764894</v>
+      </c>
+      <c r="G20">
+        <v>76.187284912153601</v>
+      </c>
+      <c r="I20">
+        <f>C20/B20</f>
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <f>D20/$B20</f>
+        <v>1825.8</v>
+      </c>
+      <c r="K20">
+        <f>E20/$B20</f>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>164</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10048</v>
+      </c>
+      <c r="E21" s="1">
+        <v>113</v>
+      </c>
+      <c r="F21">
+        <v>88.378916862887195</v>
+      </c>
+      <c r="G21">
+        <v>81.420032602789405</v>
+      </c>
+      <c r="I21">
+        <f>C21/B21</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J21">
+        <f>D21/$B21</f>
+        <v>1004.8</v>
+      </c>
+      <c r="K21">
+        <f>E21/$B21</f>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="I22" s="2">
+        <f>SUM(I19:I21)/3</f>
+        <v>19.8</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" ref="J22:K22" si="2">SUM(J19:J21)/3</f>
+        <v>1110.5333333333335</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="2"/>
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1">
-        <v>283</v>
-      </c>
-      <c r="F8" s="1">
-        <v>16269</v>
-      </c>
-      <c r="G8" s="1">
-        <v>163</v>
-      </c>
-      <c r="I8" s="1">
-        <v>86.34</v>
-      </c>
-      <c r="J8" s="1">
-        <v>82.68</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>18.866666666666667</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>1084.5999999999999</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>10.866666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C9">
+        <v>15.166666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="E9" s="1">
-        <v>345</v>
-      </c>
-      <c r="F9" s="1">
-        <v>23652</v>
-      </c>
-      <c r="G9" s="1">
-        <v>236</v>
-      </c>
-      <c r="I9" s="1">
-        <v>85.65</v>
-      </c>
-      <c r="J9" s="1">
-        <v>86.93</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>17.25</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>1182.5999999999999</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C10">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>25</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>30</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1343.6</v>
-      </c>
-      <c r="G12" s="1">
-        <v>15.8</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>14.3</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>1343.6</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6344.4</v>
-      </c>
-      <c r="G13" s="1">
-        <v>67.8</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>13.719999999999999</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
-        <v>1268.8799999999999</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="2"/>
-        <v>13.559999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1">
-        <v>205</v>
-      </c>
-      <c r="F14" s="1">
-        <v>12917</v>
-      </c>
-      <c r="G14" s="1">
-        <v>115</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>20.5</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>1291.7</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>25</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>24</v>
-      </c>
-      <c r="F19" s="1">
-        <v>501</v>
-      </c>
-      <c r="G19" s="1">
-        <v>20</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="1"/>
-        <v>501</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>95</v>
-      </c>
-      <c r="F20" s="1">
-        <v>9129</v>
-      </c>
-      <c r="G20" s="1">
-        <v>71</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="1"/>
-        <v>1825.8</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="2"/>
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1">
-        <v>164</v>
-      </c>
-      <c r="F21" s="1">
-        <v>10048</v>
-      </c>
-      <c r="G21" s="1">
-        <v>113</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="0"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="1"/>
-        <v>1004.8</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="2"/>
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>30</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
     </row>
